--- a/추가피처데이터/투자자별매매동향(수급)/375500.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/375500.xlsx
@@ -1619,43 +1619,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1887,94 +1887,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>1082</v>
+        <v>38745</v>
       </c>
       <c r="C6" s="7">
-        <v>1096</v>
+        <v>39217</v>
       </c>
       <c r="D6" s="9">
-        <v>-14</v>
+        <v>-472</v>
       </c>
       <c r="E6" s="11">
-        <v>1128</v>
+        <v>40347</v>
       </c>
       <c r="F6" s="13">
-        <v>1357</v>
+        <v>48784</v>
       </c>
       <c r="G6" s="15">
-        <v>-229</v>
+        <v>-8437</v>
       </c>
       <c r="H6" s="17">
-        <v>958</v>
+        <v>34499</v>
       </c>
       <c r="I6" s="19">
-        <v>691</v>
+        <v>24740</v>
       </c>
       <c r="J6" s="21">
-        <v>267</v>
+        <v>9759</v>
       </c>
       <c r="K6" s="23">
-        <v>555</v>
+        <v>19858</v>
       </c>
       <c r="L6" s="25">
-        <v>454</v>
+        <v>16285</v>
       </c>
       <c r="M6" s="27">
-        <v>101</v>
+        <v>3572</v>
       </c>
       <c r="N6" s="29">
-        <v>78</v>
+        <v>2826</v>
       </c>
       <c r="O6" s="31">
-        <v>40</v>
+        <v>1412</v>
       </c>
       <c r="P6" s="33">
-        <v>38</v>
+        <v>1413</v>
       </c>
       <c r="Q6" s="35">
-        <v>63</v>
+        <v>2292</v>
       </c>
       <c r="R6" s="37">
+        <v>1466</v>
+      </c>
+      <c r="S6" s="39">
+        <v>826</v>
+      </c>
+      <c r="T6" s="41">
+        <v>3</v>
+      </c>
+      <c r="U6" s="43">
+        <v>0</v>
+      </c>
+      <c r="V6" s="45">
+        <v>3</v>
+      </c>
+      <c r="W6" s="47">
         <v>41</v>
       </c>
-      <c r="S6" s="39">
-        <v>22</v>
-      </c>
-      <c r="T6" s="41">
-        <v>0</v>
-      </c>
-      <c r="U6" s="43">
-        <v>0</v>
-      </c>
-      <c r="V6" s="45">
-        <v>0</v>
-      </c>
-      <c r="W6" s="47">
-        <v>1</v>
-      </c>
       <c r="X6" s="49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y6" s="51">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Z6" s="53">
-        <v>232</v>
+        <v>8440</v>
       </c>
       <c r="AA6" s="55">
-        <v>118</v>
+        <v>4215</v>
       </c>
       <c r="AB6" s="57">
-        <v>114</v>
+        <v>4225</v>
       </c>
       <c r="AC6" s="59">
-        <v>29</v>
+        <v>1041</v>
       </c>
       <c r="AD6" s="61">
-        <v>38</v>
+        <v>1355</v>
       </c>
       <c r="AE6" s="63">
-        <v>-9</v>
+        <v>-315</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1986,16 +1986,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="AJ6" s="73">
-        <v>33</v>
+        <v>1206</v>
       </c>
       <c r="AK6" s="75">
-        <v>-23</v>
+        <v>-850</v>
       </c>
       <c r="AL6" s="77">
-        <v>3177</v>
+        <v>113947</v>
       </c>
     </row>
     <row r="7">
@@ -2003,94 +2003,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>2042</v>
+        <v>68577</v>
       </c>
       <c r="C7" s="7">
-        <v>1685</v>
+        <v>56576</v>
       </c>
       <c r="D7" s="9">
-        <v>357</v>
+        <v>12002</v>
       </c>
       <c r="E7" s="11">
-        <v>1369</v>
+        <v>45876</v>
       </c>
       <c r="F7" s="13">
-        <v>1691</v>
+        <v>56816</v>
       </c>
       <c r="G7" s="15">
-        <v>-322</v>
+        <v>-10939</v>
       </c>
       <c r="H7" s="17">
-        <v>806</v>
+        <v>27039</v>
       </c>
       <c r="I7" s="19">
-        <v>835</v>
+        <v>27918</v>
       </c>
       <c r="J7" s="21">
-        <v>-29</v>
+        <v>-879</v>
       </c>
       <c r="K7" s="23">
-        <v>443</v>
+        <v>14798</v>
       </c>
       <c r="L7" s="25">
-        <v>450</v>
+        <v>15031</v>
       </c>
       <c r="M7" s="27">
-        <v>-7</v>
+        <v>-233</v>
       </c>
       <c r="N7" s="29">
-        <v>16</v>
+        <v>542</v>
       </c>
       <c r="O7" s="31">
-        <v>30</v>
+        <v>1005</v>
       </c>
       <c r="P7" s="33">
-        <v>-14</v>
+        <v>-463</v>
       </c>
       <c r="Q7" s="35">
-        <v>83</v>
+        <v>2795</v>
       </c>
       <c r="R7" s="37">
-        <v>83</v>
+        <v>2760</v>
       </c>
       <c r="S7" s="39">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="T7" s="41">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="U7" s="43">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="V7" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W7" s="47">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="X7" s="49">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="Y7" s="51">
-        <v>-2</v>
+        <v>-60</v>
       </c>
       <c r="Z7" s="53">
-        <v>237</v>
+        <v>7973</v>
       </c>
       <c r="AA7" s="55">
-        <v>191</v>
+        <v>6409</v>
       </c>
       <c r="AB7" s="57">
-        <v>45</v>
+        <v>1563</v>
       </c>
       <c r="AC7" s="59">
-        <v>25</v>
+        <v>836</v>
       </c>
       <c r="AD7" s="61">
-        <v>77</v>
+        <v>2563</v>
       </c>
       <c r="AE7" s="63">
-        <v>-52</v>
+        <v>-1727</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2102,16 +2102,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>16</v>
+        <v>548</v>
       </c>
       <c r="AJ7" s="73">
-        <v>21</v>
+        <v>731</v>
       </c>
       <c r="AK7" s="75">
-        <v>-5</v>
+        <v>-183</v>
       </c>
       <c r="AL7" s="77">
-        <v>4233</v>
+        <v>142040</v>
       </c>
     </row>
     <row r="8">
@@ -2119,94 +2119,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>1700</v>
+        <v>55725</v>
       </c>
       <c r="C8" s="7">
-        <v>1579</v>
+        <v>51536</v>
       </c>
       <c r="D8" s="9">
-        <v>121</v>
+        <v>4189</v>
       </c>
       <c r="E8" s="11">
-        <v>1993</v>
+        <v>64601</v>
       </c>
       <c r="F8" s="13">
-        <v>1960</v>
+        <v>63815</v>
       </c>
       <c r="G8" s="15">
-        <v>33</v>
+        <v>786</v>
       </c>
       <c r="H8" s="17">
-        <v>741</v>
+        <v>24137</v>
       </c>
       <c r="I8" s="19">
-        <v>888</v>
+        <v>28904</v>
       </c>
       <c r="J8" s="21">
-        <v>-148</v>
+        <v>-4767</v>
       </c>
       <c r="K8" s="23">
-        <v>395</v>
+        <v>12869</v>
       </c>
       <c r="L8" s="25">
-        <v>400</v>
+        <v>13044</v>
       </c>
       <c r="M8" s="27">
-        <v>-4</v>
+        <v>-175</v>
       </c>
       <c r="N8" s="29">
-        <v>26</v>
+        <v>843</v>
       </c>
       <c r="O8" s="31">
-        <v>92</v>
+        <v>2951</v>
       </c>
       <c r="P8" s="33">
-        <v>-66</v>
+        <v>-2108</v>
       </c>
       <c r="Q8" s="35">
-        <v>54</v>
+        <v>1780</v>
       </c>
       <c r="R8" s="37">
-        <v>138</v>
+        <v>4456</v>
       </c>
       <c r="S8" s="39">
-        <v>-84</v>
+        <v>-2676</v>
       </c>
       <c r="T8" s="41">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="U8" s="43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V8" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W8" s="47">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="X8" s="49">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="Y8" s="51">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z8" s="53">
-        <v>203</v>
+        <v>6647</v>
       </c>
       <c r="AA8" s="55">
-        <v>225</v>
+        <v>7371</v>
       </c>
       <c r="AB8" s="57">
-        <v>-22</v>
+        <v>-723</v>
       </c>
       <c r="AC8" s="59">
-        <v>60</v>
+        <v>1925</v>
       </c>
       <c r="AD8" s="61">
-        <v>32</v>
+        <v>1026</v>
       </c>
       <c r="AE8" s="63">
-        <v>28</v>
+        <v>899</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2218,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>20</v>
+        <v>647</v>
       </c>
       <c r="AJ8" s="73">
-        <v>26</v>
+        <v>856</v>
       </c>
       <c r="AK8" s="75">
-        <v>-6</v>
+        <v>-209</v>
       </c>
       <c r="AL8" s="77">
-        <v>4453</v>
+        <v>145110</v>
       </c>
     </row>
     <row r="9">
@@ -2235,94 +2235,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>1098</v>
+        <v>38812</v>
       </c>
       <c r="C9" s="7">
-        <v>1066</v>
+        <v>37581</v>
       </c>
       <c r="D9" s="9">
-        <v>32</v>
+        <v>1231</v>
       </c>
       <c r="E9" s="11">
-        <v>1646</v>
+        <v>57858</v>
       </c>
       <c r="F9" s="13">
-        <v>1245</v>
+        <v>43837</v>
       </c>
       <c r="G9" s="15">
-        <v>401</v>
+        <v>14021</v>
       </c>
       <c r="H9" s="17">
-        <v>528</v>
+        <v>18689</v>
       </c>
       <c r="I9" s="19">
-        <v>958</v>
+        <v>33826</v>
       </c>
       <c r="J9" s="21">
-        <v>-429</v>
+        <v>-15137</v>
       </c>
       <c r="K9" s="23">
-        <v>306</v>
+        <v>10777</v>
       </c>
       <c r="L9" s="25">
-        <v>437</v>
+        <v>15386</v>
       </c>
       <c r="M9" s="27">
-        <v>-131</v>
+        <v>-4609</v>
       </c>
       <c r="N9" s="29">
-        <v>33</v>
+        <v>1195</v>
       </c>
       <c r="O9" s="31">
-        <v>39</v>
+        <v>1349</v>
       </c>
       <c r="P9" s="33">
-        <v>-6</v>
+        <v>-154</v>
       </c>
       <c r="Q9" s="35">
-        <v>67</v>
+        <v>2333</v>
       </c>
       <c r="R9" s="37">
-        <v>82</v>
+        <v>2866</v>
       </c>
       <c r="S9" s="39">
-        <v>-15</v>
+        <v>-533</v>
       </c>
       <c r="T9" s="41">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="U9" s="43">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="V9" s="45">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="W9" s="47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X9" s="49">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="Y9" s="51">
-        <v>-2</v>
+        <v>-54</v>
       </c>
       <c r="Z9" s="53">
-        <v>105</v>
+        <v>3742</v>
       </c>
       <c r="AA9" s="55">
-        <v>306</v>
+        <v>10888</v>
       </c>
       <c r="AB9" s="57">
-        <v>-201</v>
+        <v>-7147</v>
       </c>
       <c r="AC9" s="59">
-        <v>17</v>
+        <v>605</v>
       </c>
       <c r="AD9" s="61">
-        <v>91</v>
+        <v>3238</v>
       </c>
       <c r="AE9" s="63">
-        <v>-74</v>
+        <v>-2633</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>24</v>
+        <v>827</v>
       </c>
       <c r="AJ9" s="73">
-        <v>27</v>
+        <v>942</v>
       </c>
       <c r="AK9" s="75">
-        <v>-3</v>
+        <v>-115</v>
       </c>
       <c r="AL9" s="77">
-        <v>3295</v>
+        <v>116185</v>
       </c>
     </row>
     <row r="10">
@@ -2351,94 +2351,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>1368</v>
+        <v>48510</v>
       </c>
       <c r="C10" s="7">
-        <v>1322</v>
+        <v>46911</v>
       </c>
       <c r="D10" s="9">
-        <v>46</v>
+        <v>1599</v>
       </c>
       <c r="E10" s="11">
-        <v>1326</v>
+        <v>46764</v>
       </c>
       <c r="F10" s="13">
-        <v>1494</v>
+        <v>53274</v>
       </c>
       <c r="G10" s="15">
-        <v>-168</v>
+        <v>-6510</v>
       </c>
       <c r="H10" s="17">
-        <v>1216</v>
+        <v>43557</v>
       </c>
       <c r="I10" s="19">
-        <v>1098</v>
+        <v>38792</v>
       </c>
       <c r="J10" s="21">
-        <v>118</v>
+        <v>4764</v>
       </c>
       <c r="K10" s="23">
-        <v>424</v>
+        <v>15118</v>
       </c>
       <c r="L10" s="25">
-        <v>474</v>
+        <v>16808</v>
       </c>
       <c r="M10" s="27">
-        <v>-50</v>
+        <v>-1690</v>
       </c>
       <c r="N10" s="29">
-        <v>129</v>
+        <v>4668</v>
       </c>
       <c r="O10" s="31">
-        <v>57</v>
+        <v>1979</v>
       </c>
       <c r="P10" s="33">
-        <v>72</v>
+        <v>2689</v>
       </c>
       <c r="Q10" s="35">
-        <v>209</v>
+        <v>7475</v>
       </c>
       <c r="R10" s="37">
-        <v>234</v>
+        <v>8232</v>
       </c>
       <c r="S10" s="39">
-        <v>-25</v>
+        <v>-757</v>
       </c>
       <c r="T10" s="41">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="U10" s="43">
         <v>0</v>
       </c>
       <c r="V10" s="45">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="W10" s="47">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="X10" s="49">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="Y10" s="51">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="Z10" s="53">
-        <v>357</v>
+        <v>12916</v>
       </c>
       <c r="AA10" s="55">
-        <v>181</v>
+        <v>6376</v>
       </c>
       <c r="AB10" s="57">
-        <v>176</v>
+        <v>6540</v>
       </c>
       <c r="AC10" s="59">
-        <v>93</v>
+        <v>3218</v>
       </c>
       <c r="AD10" s="61">
-        <v>152</v>
+        <v>5330</v>
       </c>
       <c r="AE10" s="63">
-        <v>-59</v>
+        <v>-2111</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>17</v>
+        <v>616</v>
       </c>
       <c r="AJ10" s="73">
-        <v>13</v>
+        <v>469</v>
       </c>
       <c r="AK10" s="75">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="AL10" s="77">
-        <v>3927</v>
+        <v>139446</v>
       </c>
     </row>
     <row r="11">
@@ -2467,94 +2467,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>928</v>
+        <v>34669</v>
       </c>
       <c r="C11" s="7">
-        <v>1154</v>
+        <v>43419</v>
       </c>
       <c r="D11" s="9">
-        <v>-226</v>
+        <v>-8750</v>
       </c>
       <c r="E11" s="11">
-        <v>1331</v>
+        <v>49581</v>
       </c>
       <c r="F11" s="13">
-        <v>1179</v>
+        <v>44373</v>
       </c>
       <c r="G11" s="15">
-        <v>151</v>
+        <v>5209</v>
       </c>
       <c r="H11" s="17">
-        <v>923</v>
+        <v>34910</v>
       </c>
       <c r="I11" s="19">
-        <v>852</v>
+        <v>31483</v>
       </c>
       <c r="J11" s="21">
-        <v>71</v>
+        <v>3427</v>
       </c>
       <c r="K11" s="23">
-        <v>438</v>
+        <v>16474</v>
       </c>
       <c r="L11" s="25">
-        <v>359</v>
+        <v>13133</v>
       </c>
       <c r="M11" s="27">
+        <v>3341</v>
+      </c>
+      <c r="N11" s="29">
+        <v>2517</v>
+      </c>
+      <c r="O11" s="31">
+        <v>1911</v>
+      </c>
+      <c r="P11" s="33">
+        <v>606</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>4336</v>
+      </c>
+      <c r="R11" s="37">
+        <v>5512</v>
+      </c>
+      <c r="S11" s="39">
+        <v>-1176</v>
+      </c>
+      <c r="T11" s="41">
+        <v>16</v>
+      </c>
+      <c r="U11" s="43">
+        <v>91</v>
+      </c>
+      <c r="V11" s="45">
+        <v>-75</v>
+      </c>
+      <c r="W11" s="47">
         <v>79</v>
       </c>
-      <c r="N11" s="29">
-        <v>66</v>
-      </c>
-      <c r="O11" s="31">
-        <v>51</v>
-      </c>
-      <c r="P11" s="33">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="35">
-        <v>113</v>
-      </c>
-      <c r="R11" s="37">
-        <v>150</v>
-      </c>
-      <c r="S11" s="39">
-        <v>-37</v>
-      </c>
-      <c r="T11" s="41">
-        <v>0</v>
-      </c>
-      <c r="U11" s="43">
-        <v>2</v>
-      </c>
-      <c r="V11" s="45">
-        <v>-2</v>
-      </c>
-      <c r="W11" s="47">
-        <v>2</v>
-      </c>
       <c r="X11" s="49">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="Y11" s="51">
         <v>0</v>
       </c>
       <c r="Z11" s="53">
-        <v>260</v>
+        <v>9909</v>
       </c>
       <c r="AA11" s="55">
-        <v>196</v>
+        <v>7367</v>
       </c>
       <c r="AB11" s="57">
-        <v>65</v>
+        <v>2542</v>
       </c>
       <c r="AC11" s="59">
-        <v>42</v>
+        <v>1578</v>
       </c>
       <c r="AD11" s="61">
-        <v>92</v>
+        <v>3390</v>
       </c>
       <c r="AE11" s="63">
-        <v>-50</v>
+        <v>-1811</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>47</v>
+        <v>1783</v>
       </c>
       <c r="AJ11" s="73">
-        <v>43</v>
+        <v>1669</v>
       </c>
       <c r="AK11" s="75">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="AL11" s="77">
-        <v>3229</v>
+        <v>120943</v>
       </c>
     </row>
     <row r="12">
@@ -2583,94 +2583,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>1351</v>
+        <v>51883</v>
       </c>
       <c r="C12" s="7">
-        <v>1184</v>
+        <v>45997</v>
       </c>
       <c r="D12" s="9">
-        <v>167</v>
+        <v>5886</v>
       </c>
       <c r="E12" s="11">
-        <v>1134</v>
+        <v>43881</v>
       </c>
       <c r="F12" s="13">
-        <v>1777</v>
+        <v>68906</v>
       </c>
       <c r="G12" s="15">
-        <v>-643</v>
+        <v>-25025</v>
       </c>
       <c r="H12" s="17">
-        <v>1215</v>
+        <v>47357</v>
       </c>
       <c r="I12" s="19">
-        <v>719</v>
+        <v>27441</v>
       </c>
       <c r="J12" s="21">
-        <v>496</v>
+        <v>19916</v>
       </c>
       <c r="K12" s="23">
-        <v>356</v>
+        <v>13578</v>
       </c>
       <c r="L12" s="25">
-        <v>281</v>
+        <v>10769</v>
       </c>
       <c r="M12" s="27">
-        <v>75</v>
+        <v>2809</v>
       </c>
       <c r="N12" s="29">
-        <v>63</v>
+        <v>2462</v>
       </c>
       <c r="O12" s="31">
-        <v>63</v>
+        <v>2403</v>
       </c>
       <c r="P12" s="33">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="35">
-        <v>157</v>
+        <v>6210</v>
       </c>
       <c r="R12" s="37">
-        <v>99</v>
+        <v>3772</v>
       </c>
       <c r="S12" s="39">
-        <v>58</v>
+        <v>2438</v>
       </c>
       <c r="T12" s="41">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="U12" s="43">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="V12" s="45">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="W12" s="47">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="X12" s="49">
-        <v>8</v>
+        <v>297</v>
       </c>
       <c r="Y12" s="51">
-        <v>-7</v>
+        <v>-260</v>
       </c>
       <c r="Z12" s="53">
-        <v>556</v>
+        <v>21926</v>
       </c>
       <c r="AA12" s="55">
-        <v>221</v>
+        <v>8345</v>
       </c>
       <c r="AB12" s="57">
-        <v>336</v>
+        <v>13581</v>
       </c>
       <c r="AC12" s="59">
-        <v>79</v>
+        <v>3020</v>
       </c>
       <c r="AD12" s="61">
-        <v>48</v>
+        <v>1829</v>
       </c>
       <c r="AE12" s="63">
-        <v>31</v>
+        <v>1190</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>22</v>
+        <v>887</v>
       </c>
       <c r="AJ12" s="73">
-        <v>43</v>
+        <v>1664</v>
       </c>
       <c r="AK12" s="75">
-        <v>-21</v>
+        <v>-777</v>
       </c>
       <c r="AL12" s="77">
-        <v>3722</v>
+        <v>144009</v>
       </c>
     </row>
     <row r="13">
@@ -2699,94 +2699,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>1840</v>
+        <v>65778</v>
       </c>
       <c r="C13" s="7">
-        <v>1799</v>
+        <v>64283</v>
       </c>
       <c r="D13" s="9">
-        <v>41</v>
+        <v>1496</v>
       </c>
       <c r="E13" s="11">
-        <v>1180</v>
+        <v>42003</v>
       </c>
       <c r="F13" s="13">
-        <v>1305</v>
+        <v>46895</v>
       </c>
       <c r="G13" s="15">
-        <v>-125</v>
+        <v>-4892</v>
       </c>
       <c r="H13" s="17">
-        <v>973</v>
+        <v>35105</v>
       </c>
       <c r="I13" s="19">
-        <v>901</v>
+        <v>32128</v>
       </c>
       <c r="J13" s="21">
-        <v>72</v>
+        <v>2977</v>
       </c>
       <c r="K13" s="23">
-        <v>418</v>
+        <v>14942</v>
       </c>
       <c r="L13" s="25">
-        <v>374</v>
+        <v>13326</v>
       </c>
       <c r="M13" s="27">
+        <v>1616</v>
+      </c>
+      <c r="N13" s="29">
+        <v>2946</v>
+      </c>
+      <c r="O13" s="31">
+        <v>1225</v>
+      </c>
+      <c r="P13" s="33">
+        <v>1721</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>2852</v>
+      </c>
+      <c r="R13" s="37">
+        <v>3634</v>
+      </c>
+      <c r="S13" s="39">
+        <v>-782</v>
+      </c>
+      <c r="T13" s="41">
         <v>44</v>
       </c>
-      <c r="N13" s="29">
-        <v>81</v>
-      </c>
-      <c r="O13" s="31">
-        <v>34</v>
-      </c>
-      <c r="P13" s="33">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="35">
-        <v>79</v>
-      </c>
-      <c r="R13" s="37">
-        <v>102</v>
-      </c>
-      <c r="S13" s="39">
-        <v>-23</v>
-      </c>
-      <c r="T13" s="41">
-        <v>1</v>
-      </c>
       <c r="U13" s="43">
         <v>0</v>
       </c>
       <c r="V13" s="45">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="W13" s="47">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="X13" s="49">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Y13" s="51">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="Z13" s="53">
-        <v>321</v>
+        <v>11637</v>
       </c>
       <c r="AA13" s="55">
-        <v>358</v>
+        <v>12757</v>
       </c>
       <c r="AB13" s="57">
-        <v>-37</v>
+        <v>-1120</v>
       </c>
       <c r="AC13" s="59">
-        <v>72</v>
+        <v>2624</v>
       </c>
       <c r="AD13" s="61">
-        <v>33</v>
+        <v>1166</v>
       </c>
       <c r="AE13" s="63">
-        <v>39</v>
+        <v>1458</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>26</v>
+        <v>913</v>
       </c>
       <c r="AJ13" s="73">
-        <v>14</v>
+        <v>494</v>
       </c>
       <c r="AK13" s="75">
-        <v>12</v>
+        <v>419</v>
       </c>
       <c r="AL13" s="77">
-        <v>4019</v>
+        <v>143800</v>
       </c>
     </row>
     <row r="14">
@@ -2815,94 +2815,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>1675</v>
+        <v>66119</v>
       </c>
       <c r="C14" s="7">
-        <v>1610</v>
+        <v>64479</v>
       </c>
       <c r="D14" s="9">
-        <v>66</v>
+        <v>1640</v>
       </c>
       <c r="E14" s="11">
-        <v>2043</v>
+        <v>81905</v>
       </c>
       <c r="F14" s="13">
-        <v>2246</v>
+        <v>90249</v>
       </c>
       <c r="G14" s="15">
-        <v>-203</v>
+        <v>-8343</v>
       </c>
       <c r="H14" s="17">
-        <v>1338</v>
+        <v>53831</v>
       </c>
       <c r="I14" s="19">
-        <v>1225</v>
+        <v>48128</v>
       </c>
       <c r="J14" s="21">
-        <v>113</v>
+        <v>5704</v>
       </c>
       <c r="K14" s="23">
-        <v>491</v>
+        <v>19043</v>
       </c>
       <c r="L14" s="25">
-        <v>505</v>
+        <v>19515</v>
       </c>
       <c r="M14" s="27">
-        <v>-14</v>
+        <v>-472</v>
       </c>
       <c r="N14" s="29">
-        <v>46</v>
+        <v>1886</v>
       </c>
       <c r="O14" s="31">
-        <v>59</v>
+        <v>2344</v>
       </c>
       <c r="P14" s="33">
-        <v>-13</v>
+        <v>-458</v>
       </c>
       <c r="Q14" s="35">
-        <v>166</v>
+        <v>6846</v>
       </c>
       <c r="R14" s="37">
-        <v>131</v>
+        <v>5253</v>
       </c>
       <c r="S14" s="39">
-        <v>35</v>
+        <v>1593</v>
       </c>
       <c r="T14" s="41">
-        <v>8</v>
+        <v>305</v>
       </c>
       <c r="U14" s="43">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="V14" s="45">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="W14" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14" s="49">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y14" s="51">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="Z14" s="53">
-        <v>515</v>
+        <v>21120</v>
       </c>
       <c r="AA14" s="55">
-        <v>376</v>
+        <v>14891</v>
       </c>
       <c r="AB14" s="57">
-        <v>139</v>
+        <v>6228</v>
       </c>
       <c r="AC14" s="59">
-        <v>113</v>
+        <v>4631</v>
       </c>
       <c r="AD14" s="61">
-        <v>148</v>
+        <v>5873</v>
       </c>
       <c r="AE14" s="63">
-        <v>-35</v>
+        <v>-1242</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2914,16 +2914,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>39</v>
+        <v>1586</v>
       </c>
       <c r="AJ14" s="73">
-        <v>14</v>
+        <v>586</v>
       </c>
       <c r="AK14" s="75">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL14" s="77">
-        <v>5096</v>
+        <v>203441</v>
       </c>
     </row>
     <row r="15">
@@ -2931,94 +2931,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>1502</v>
+        <v>63244</v>
       </c>
       <c r="C15" s="7">
-        <v>1437</v>
+        <v>60876</v>
       </c>
       <c r="D15" s="9">
-        <v>64</v>
+        <v>2368</v>
       </c>
       <c r="E15" s="11">
-        <v>2967</v>
+        <v>126012</v>
       </c>
       <c r="F15" s="13">
-        <v>2602</v>
+        <v>110997</v>
       </c>
       <c r="G15" s="15">
-        <v>365</v>
+        <v>15015</v>
       </c>
       <c r="H15" s="17">
-        <v>895</v>
+        <v>38205</v>
       </c>
       <c r="I15" s="19">
-        <v>1325</v>
+        <v>55572</v>
       </c>
       <c r="J15" s="21">
-        <v>-429</v>
+        <v>-17367</v>
       </c>
       <c r="K15" s="23">
-        <v>391</v>
+        <v>16600</v>
       </c>
       <c r="L15" s="25">
-        <v>300</v>
+        <v>12529</v>
       </c>
       <c r="M15" s="27">
-        <v>91</v>
+        <v>4071</v>
       </c>
       <c r="N15" s="29">
-        <v>55</v>
+        <v>2305</v>
       </c>
       <c r="O15" s="31">
-        <v>54</v>
+        <v>2280</v>
       </c>
       <c r="P15" s="33">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="35">
-        <v>97</v>
+        <v>4189</v>
       </c>
       <c r="R15" s="37">
-        <v>169</v>
+        <v>7226</v>
       </c>
       <c r="S15" s="39">
-        <v>-72</v>
+        <v>-3037</v>
       </c>
       <c r="T15" s="41">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="U15" s="43">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="V15" s="45">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="W15" s="47">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="X15" s="49">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="Y15" s="51">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="Z15" s="53">
-        <v>194</v>
+        <v>8202</v>
       </c>
       <c r="AA15" s="55">
-        <v>689</v>
+        <v>28925</v>
       </c>
       <c r="AB15" s="57">
-        <v>-495</v>
+        <v>-20723</v>
       </c>
       <c r="AC15" s="59">
-        <v>152</v>
+        <v>6650</v>
       </c>
       <c r="AD15" s="61">
-        <v>110</v>
+        <v>4494</v>
       </c>
       <c r="AE15" s="63">
-        <v>42</v>
+        <v>2157</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3030,16 +3030,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>17</v>
+        <v>744</v>
       </c>
       <c r="AJ15" s="73">
-        <v>18</v>
+        <v>760</v>
       </c>
       <c r="AK15" s="75">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="AL15" s="77">
-        <v>5382</v>
+        <v>228205</v>
       </c>
     </row>
     <row r="16">
@@ -3047,94 +3047,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>1804</v>
+        <v>71448</v>
       </c>
       <c r="C16" s="7">
-        <v>1697</v>
+        <v>67352</v>
       </c>
       <c r="D16" s="9">
-        <v>107</v>
+        <v>4096</v>
       </c>
       <c r="E16" s="11">
-        <v>1887</v>
+        <v>74877</v>
       </c>
       <c r="F16" s="13">
-        <v>1800</v>
+        <v>71649</v>
       </c>
       <c r="G16" s="15">
-        <v>87</v>
+        <v>3228</v>
       </c>
       <c r="H16" s="17">
-        <v>787</v>
+        <v>31553</v>
       </c>
       <c r="I16" s="19">
-        <v>983</v>
+        <v>38955</v>
       </c>
       <c r="J16" s="21">
-        <v>-196</v>
+        <v>-7402</v>
       </c>
       <c r="K16" s="23">
-        <v>489</v>
+        <v>19517</v>
       </c>
       <c r="L16" s="25">
-        <v>378</v>
+        <v>14960</v>
       </c>
       <c r="M16" s="27">
-        <v>110</v>
+        <v>4557</v>
       </c>
       <c r="N16" s="29">
+        <v>1301</v>
+      </c>
+      <c r="O16" s="31">
+        <v>2163</v>
+      </c>
+      <c r="P16" s="33">
+        <v>-862</v>
+      </c>
+      <c r="Q16" s="35">
+        <v>2419</v>
+      </c>
+      <c r="R16" s="37">
+        <v>6066</v>
+      </c>
+      <c r="S16" s="39">
+        <v>-3648</v>
+      </c>
+      <c r="T16" s="41">
+        <v>97</v>
+      </c>
+      <c r="U16" s="43">
+        <v>205</v>
+      </c>
+      <c r="V16" s="45">
+        <v>-108</v>
+      </c>
+      <c r="W16" s="47">
+        <v>34</v>
+      </c>
+      <c r="X16" s="49">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="51">
         <v>32</v>
       </c>
-      <c r="O16" s="31">
-        <v>54</v>
-      </c>
-      <c r="P16" s="33">
-        <v>-21</v>
-      </c>
-      <c r="Q16" s="35">
-        <v>60</v>
-      </c>
-      <c r="R16" s="37">
-        <v>153</v>
-      </c>
-      <c r="S16" s="39">
-        <v>-93</v>
-      </c>
-      <c r="T16" s="41">
-        <v>2</v>
-      </c>
-      <c r="U16" s="43">
-        <v>5</v>
-      </c>
-      <c r="V16" s="45">
-        <v>-3</v>
-      </c>
-      <c r="W16" s="47">
-        <v>1</v>
-      </c>
-      <c r="X16" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="51">
-        <v>1</v>
-      </c>
       <c r="Z16" s="53">
-        <v>178</v>
+        <v>7176</v>
       </c>
       <c r="AA16" s="55">
-        <v>361</v>
+        <v>14282</v>
       </c>
       <c r="AB16" s="57">
-        <v>-183</v>
+        <v>-7106</v>
       </c>
       <c r="AC16" s="59">
-        <v>25</v>
+        <v>1010</v>
       </c>
       <c r="AD16" s="61">
-        <v>32</v>
+        <v>1277</v>
       </c>
       <c r="AE16" s="63">
-        <v>-7</v>
+        <v>-267</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>15</v>
+        <v>590</v>
       </c>
       <c r="AJ16" s="73">
-        <v>13</v>
+        <v>511</v>
       </c>
       <c r="AK16" s="75">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="AL16" s="77">
-        <v>4492</v>
+        <v>178468</v>
       </c>
     </row>
     <row r="17">
@@ -3163,94 +3163,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>2081</v>
+        <v>92750</v>
       </c>
       <c r="C17" s="7">
-        <v>1788</v>
+        <v>79983</v>
       </c>
       <c r="D17" s="9">
-        <v>292</v>
+        <v>12768</v>
       </c>
       <c r="E17" s="11">
-        <v>3015</v>
+        <v>136367</v>
       </c>
       <c r="F17" s="13">
-        <v>2695</v>
+        <v>120690</v>
       </c>
       <c r="G17" s="15">
-        <v>320</v>
+        <v>15677</v>
       </c>
       <c r="H17" s="17">
-        <v>1377</v>
+        <v>61840</v>
       </c>
       <c r="I17" s="19">
-        <v>1990</v>
+        <v>90384</v>
       </c>
       <c r="J17" s="21">
-        <v>-613</v>
+        <v>-28544</v>
       </c>
       <c r="K17" s="23">
-        <v>552</v>
+        <v>24365</v>
       </c>
       <c r="L17" s="25">
-        <v>512</v>
+        <v>23282</v>
       </c>
       <c r="M17" s="27">
-        <v>40</v>
+        <v>1082</v>
       </c>
       <c r="N17" s="29">
-        <v>135</v>
+        <v>5884</v>
       </c>
       <c r="O17" s="31">
-        <v>58</v>
+        <v>2595</v>
       </c>
       <c r="P17" s="33">
-        <v>77</v>
+        <v>3289</v>
       </c>
       <c r="Q17" s="35">
-        <v>261</v>
+        <v>12003</v>
       </c>
       <c r="R17" s="37">
-        <v>643</v>
+        <v>29182</v>
       </c>
       <c r="S17" s="39">
-        <v>-382</v>
+        <v>-17178</v>
       </c>
       <c r="T17" s="41">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="U17" s="43">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="V17" s="45">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="W17" s="47">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="X17" s="49">
-        <v>12</v>
+        <v>523</v>
       </c>
       <c r="Y17" s="51">
-        <v>-3</v>
+        <v>-130</v>
       </c>
       <c r="Z17" s="53">
-        <v>342</v>
+        <v>15456</v>
       </c>
       <c r="AA17" s="55">
-        <v>557</v>
+        <v>25424</v>
       </c>
       <c r="AB17" s="57">
-        <v>-215</v>
+        <v>-9968</v>
       </c>
       <c r="AC17" s="59">
-        <v>75</v>
+        <v>3585</v>
       </c>
       <c r="AD17" s="61">
-        <v>208</v>
+        <v>9359</v>
       </c>
       <c r="AE17" s="63">
-        <v>-133</v>
+        <v>-5774</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3262,16 +3262,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>20</v>
+        <v>933</v>
       </c>
       <c r="AJ17" s="73">
-        <v>19</v>
+        <v>833</v>
       </c>
       <c r="AK17" s="75">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL17" s="77">
-        <v>6492</v>
+        <v>291890</v>
       </c>
     </row>
     <row r="18">
@@ -3279,94 +3279,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>1770</v>
+        <v>92492</v>
       </c>
       <c r="C18" s="7">
-        <v>1615</v>
+        <v>85749</v>
       </c>
       <c r="D18" s="9">
-        <v>155</v>
+        <v>6743</v>
       </c>
       <c r="E18" s="11">
-        <v>4534</v>
+        <v>240944</v>
       </c>
       <c r="F18" s="13">
-        <v>3526</v>
+        <v>185576</v>
       </c>
       <c r="G18" s="15">
-        <v>1008</v>
+        <v>55368</v>
       </c>
       <c r="H18" s="17">
-        <v>1235</v>
+        <v>64187</v>
       </c>
       <c r="I18" s="19">
-        <v>2399</v>
+        <v>126334</v>
       </c>
       <c r="J18" s="21">
-        <v>-1164</v>
+        <v>-62147</v>
       </c>
       <c r="K18" s="23">
-        <v>623</v>
+        <v>32513</v>
       </c>
       <c r="L18" s="25">
-        <v>558</v>
+        <v>29364</v>
       </c>
       <c r="M18" s="27">
-        <v>66</v>
+        <v>3150</v>
       </c>
       <c r="N18" s="29">
-        <v>32</v>
+        <v>1659</v>
       </c>
       <c r="O18" s="31">
-        <v>112</v>
+        <v>5986</v>
       </c>
       <c r="P18" s="33">
-        <v>-80</v>
+        <v>-4327</v>
       </c>
       <c r="Q18" s="35">
-        <v>80</v>
+        <v>4165</v>
       </c>
       <c r="R18" s="37">
-        <v>1243</v>
+        <v>65313</v>
       </c>
       <c r="S18" s="39">
-        <v>-1163</v>
+        <v>-61148</v>
       </c>
       <c r="T18" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="43">
-        <v>9</v>
+        <v>527</v>
       </c>
       <c r="V18" s="45">
-        <v>-9</v>
+        <v>-526</v>
       </c>
       <c r="W18" s="47">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="X18" s="49">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="51">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="Z18" s="53">
-        <v>293</v>
+        <v>15154</v>
       </c>
       <c r="AA18" s="55">
-        <v>278</v>
+        <v>14694</v>
       </c>
       <c r="AB18" s="57">
-        <v>15</v>
+        <v>460</v>
       </c>
       <c r="AC18" s="59">
-        <v>204</v>
+        <v>10545</v>
       </c>
       <c r="AD18" s="61">
-        <v>198</v>
+        <v>10394</v>
       </c>
       <c r="AE18" s="63">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3378,16 +3378,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>21</v>
+        <v>1094</v>
       </c>
       <c r="AJ18" s="73">
-        <v>20</v>
+        <v>1058</v>
       </c>
       <c r="AK18" s="75">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AL18" s="77">
-        <v>7559</v>
+        <v>398717</v>
       </c>
     </row>
     <row r="19">
@@ -3395,94 +3395,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>1005</v>
+        <v>72516</v>
       </c>
       <c r="C19" s="7">
-        <v>1534</v>
+        <v>107315</v>
       </c>
       <c r="D19" s="9">
-        <v>-530</v>
+        <v>-34799</v>
       </c>
       <c r="E19" s="11">
-        <v>3012</v>
+        <v>227921</v>
       </c>
       <c r="F19" s="13">
-        <v>2116</v>
+        <v>163986</v>
       </c>
       <c r="G19" s="15">
-        <v>896</v>
+        <v>63936</v>
       </c>
       <c r="H19" s="17">
-        <v>990</v>
+        <v>75026</v>
       </c>
       <c r="I19" s="19">
-        <v>1359</v>
+        <v>104548</v>
       </c>
       <c r="J19" s="21">
-        <v>-370</v>
+        <v>-29523</v>
       </c>
       <c r="K19" s="23">
-        <v>470</v>
+        <v>37587</v>
       </c>
       <c r="L19" s="25">
-        <v>531</v>
+        <v>38105</v>
       </c>
       <c r="M19" s="27">
-        <v>-61</v>
+        <v>-518</v>
       </c>
       <c r="N19" s="29">
-        <v>37</v>
+        <v>2424</v>
       </c>
       <c r="O19" s="31">
-        <v>85</v>
+        <v>6890</v>
       </c>
       <c r="P19" s="33">
-        <v>-48</v>
+        <v>-4467</v>
       </c>
       <c r="Q19" s="35">
-        <v>140</v>
+        <v>8938</v>
       </c>
       <c r="R19" s="37">
-        <v>350</v>
+        <v>26522</v>
       </c>
       <c r="S19" s="39">
-        <v>-210</v>
+        <v>-17584</v>
       </c>
       <c r="T19" s="41">
-        <v>5</v>
+        <v>299</v>
       </c>
       <c r="U19" s="43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V19" s="45">
-        <v>5</v>
+        <v>296</v>
       </c>
       <c r="W19" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19" s="49">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="Y19" s="51">
-        <v>-1</v>
+        <v>-42</v>
       </c>
       <c r="Z19" s="53">
-        <v>171</v>
+        <v>10956</v>
       </c>
       <c r="AA19" s="55">
-        <v>254</v>
+        <v>23064</v>
       </c>
       <c r="AB19" s="57">
-        <v>-82</v>
+        <v>-12108</v>
       </c>
       <c r="AC19" s="59">
-        <v>167</v>
+        <v>14820</v>
       </c>
       <c r="AD19" s="61">
-        <v>139</v>
+        <v>9921</v>
       </c>
       <c r="AE19" s="63">
-        <v>28</v>
+        <v>4900</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3494,16 +3494,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>20</v>
+        <v>1642</v>
       </c>
       <c r="AJ19" s="73">
-        <v>17</v>
+        <v>1256</v>
       </c>
       <c r="AK19" s="75">
-        <v>3</v>
+        <v>386</v>
       </c>
       <c r="AL19" s="77">
-        <v>5026</v>
+        <v>377105</v>
       </c>
     </row>
     <row r="20">
@@ -3511,94 +3511,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>964</v>
+        <v>126705</v>
       </c>
       <c r="C20" s="7">
-        <v>1144</v>
+        <v>151129</v>
       </c>
       <c r="D20" s="9">
-        <v>-180</v>
+        <v>-24423</v>
       </c>
       <c r="E20" s="11">
-        <v>2869</v>
+        <v>380047</v>
       </c>
       <c r="F20" s="13">
-        <v>2335</v>
+        <v>308375</v>
       </c>
       <c r="G20" s="15">
-        <v>534</v>
+        <v>71672</v>
       </c>
       <c r="H20" s="17">
-        <v>865</v>
+        <v>113420</v>
       </c>
       <c r="I20" s="19">
-        <v>1240</v>
+        <v>163410</v>
       </c>
       <c r="J20" s="21">
-        <v>-375</v>
+        <v>-49990</v>
       </c>
       <c r="K20" s="23">
-        <v>266</v>
+        <v>34961</v>
       </c>
       <c r="L20" s="25">
-        <v>321</v>
+        <v>42320</v>
       </c>
       <c r="M20" s="27">
-        <v>-55</v>
+        <v>-7359</v>
       </c>
       <c r="N20" s="29">
-        <v>42</v>
+        <v>5495</v>
       </c>
       <c r="O20" s="31">
-        <v>103</v>
+        <v>13575</v>
       </c>
       <c r="P20" s="33">
-        <v>-61</v>
+        <v>-8079</v>
       </c>
       <c r="Q20" s="35">
-        <v>123</v>
+        <v>16156</v>
       </c>
       <c r="R20" s="37">
-        <v>380</v>
+        <v>50254</v>
       </c>
       <c r="S20" s="39">
-        <v>-257</v>
+        <v>-34098</v>
       </c>
       <c r="T20" s="41">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="U20" s="43">
-        <v>3</v>
+        <v>386</v>
       </c>
       <c r="V20" s="45">
-        <v>-2</v>
+        <v>-301</v>
       </c>
       <c r="W20" s="47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X20" s="49">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="Y20" s="51">
-        <v>-1</v>
+        <v>-113</v>
       </c>
       <c r="Z20" s="53">
-        <v>171</v>
+        <v>22354</v>
       </c>
       <c r="AA20" s="55">
-        <v>353</v>
+        <v>46428</v>
       </c>
       <c r="AB20" s="57">
-        <v>-182</v>
+        <v>-24074</v>
       </c>
       <c r="AC20" s="59">
-        <v>262</v>
+        <v>34360</v>
       </c>
       <c r="AD20" s="61">
-        <v>79</v>
+        <v>10325</v>
       </c>
       <c r="AE20" s="63">
-        <v>183</v>
+        <v>24035</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3610,16 +3610,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>54</v>
+        <v>7148</v>
       </c>
       <c r="AJ20" s="73">
-        <v>33</v>
+        <v>4407</v>
       </c>
       <c r="AK20" s="75">
-        <v>21</v>
+        <v>2741</v>
       </c>
       <c r="AL20" s="77">
-        <v>4752</v>
+        <v>627321</v>
       </c>
     </row>
     <row r="21">
@@ -3627,94 +3627,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>718</v>
+        <v>84920</v>
       </c>
       <c r="C21" s="7">
-        <v>974</v>
+        <v>114621</v>
       </c>
       <c r="D21" s="9">
-        <v>-256</v>
+        <v>-29701</v>
       </c>
       <c r="E21" s="11">
-        <v>1340</v>
+        <v>158199</v>
       </c>
       <c r="F21" s="13">
-        <v>1604</v>
+        <v>191706</v>
       </c>
       <c r="G21" s="15">
-        <v>-265</v>
+        <v>-33506</v>
       </c>
       <c r="H21" s="17">
-        <v>875</v>
+        <v>105016</v>
       </c>
       <c r="I21" s="19">
-        <v>537</v>
+        <v>62950</v>
       </c>
       <c r="J21" s="21">
-        <v>338</v>
+        <v>42066</v>
       </c>
       <c r="K21" s="23">
-        <v>198</v>
+        <v>23488</v>
       </c>
       <c r="L21" s="25">
-        <v>216</v>
+        <v>25347</v>
       </c>
       <c r="M21" s="27">
-        <v>-17</v>
+        <v>-1859</v>
       </c>
       <c r="N21" s="29">
-        <v>101</v>
+        <v>12361</v>
       </c>
       <c r="O21" s="31">
-        <v>21</v>
+        <v>2458</v>
       </c>
       <c r="P21" s="33">
-        <v>80</v>
+        <v>9903</v>
       </c>
       <c r="Q21" s="35">
-        <v>119</v>
+        <v>14534</v>
       </c>
       <c r="R21" s="37">
-        <v>130</v>
+        <v>15208</v>
       </c>
       <c r="S21" s="39">
-        <v>-11</v>
+        <v>-674</v>
       </c>
       <c r="T21" s="41">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="U21" s="43">
         <v>0</v>
       </c>
       <c r="V21" s="45">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="W21" s="47">
-        <v>2</v>
+        <v>270</v>
       </c>
       <c r="X21" s="49">
-        <v>3</v>
+        <v>351</v>
       </c>
       <c r="Y21" s="51">
-        <v>-1</v>
+        <v>-81</v>
       </c>
       <c r="Z21" s="53">
-        <v>144</v>
+        <v>17240</v>
       </c>
       <c r="AA21" s="55">
-        <v>70</v>
+        <v>8264</v>
       </c>
       <c r="AB21" s="57">
-        <v>74</v>
+        <v>8976</v>
       </c>
       <c r="AC21" s="59">
-        <v>309</v>
+        <v>36951</v>
       </c>
       <c r="AD21" s="61">
-        <v>97</v>
+        <v>11322</v>
       </c>
       <c r="AE21" s="63">
-        <v>212</v>
+        <v>25629</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3726,16 +3726,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>199</v>
+        <v>22986</v>
       </c>
       <c r="AJ21" s="73">
-        <v>15</v>
+        <v>1845</v>
       </c>
       <c r="AK21" s="75">
-        <v>183</v>
+        <v>21141</v>
       </c>
       <c r="AL21" s="77">
-        <v>3131</v>
+        <v>371121</v>
       </c>
     </row>
     <row r="22">
@@ -3743,94 +3743,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>1065</v>
+        <v>129346</v>
       </c>
       <c r="C22" s="7">
-        <v>1364</v>
+        <v>162514</v>
       </c>
       <c r="D22" s="9">
-        <v>-299</v>
+        <v>-33168</v>
       </c>
       <c r="E22" s="11">
-        <v>2456</v>
+        <v>292958</v>
       </c>
       <c r="F22" s="13">
-        <v>2318</v>
+        <v>279845</v>
       </c>
       <c r="G22" s="15">
-        <v>138</v>
+        <v>13112</v>
       </c>
       <c r="H22" s="17">
-        <v>1194</v>
+        <v>145068</v>
       </c>
       <c r="I22" s="19">
-        <v>1020</v>
+        <v>123224</v>
       </c>
       <c r="J22" s="21">
-        <v>175</v>
+        <v>21844</v>
       </c>
       <c r="K22" s="23">
-        <v>315</v>
+        <v>38103</v>
       </c>
       <c r="L22" s="25">
-        <v>287</v>
+        <v>34801</v>
       </c>
       <c r="M22" s="27">
-        <v>28</v>
+        <v>3301</v>
       </c>
       <c r="N22" s="29">
-        <v>94</v>
+        <v>11714</v>
       </c>
       <c r="O22" s="31">
-        <v>145</v>
+        <v>17022</v>
       </c>
       <c r="P22" s="33">
-        <v>-51</v>
+        <v>-5308</v>
       </c>
       <c r="Q22" s="35">
-        <v>265</v>
+        <v>32757</v>
       </c>
       <c r="R22" s="37">
-        <v>219</v>
+        <v>26367</v>
       </c>
       <c r="S22" s="39">
-        <v>46</v>
+        <v>6390</v>
       </c>
       <c r="T22" s="41">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="U22" s="43">
-        <v>4</v>
+        <v>576</v>
       </c>
       <c r="V22" s="45">
-        <v>-4</v>
+        <v>-529</v>
       </c>
       <c r="W22" s="47">
-        <v>3</v>
+        <v>354</v>
       </c>
       <c r="X22" s="49">
-        <v>4</v>
+        <v>533</v>
       </c>
       <c r="Y22" s="51">
-        <v>-2</v>
+        <v>-179</v>
       </c>
       <c r="Z22" s="53">
-        <v>176</v>
+        <v>21611</v>
       </c>
       <c r="AA22" s="55">
-        <v>234</v>
+        <v>28261</v>
       </c>
       <c r="AB22" s="57">
-        <v>-58</v>
+        <v>-6651</v>
       </c>
       <c r="AC22" s="59">
-        <v>342</v>
+        <v>40483</v>
       </c>
       <c r="AD22" s="61">
-        <v>126</v>
+        <v>15664</v>
       </c>
       <c r="AE22" s="63">
-        <v>216</v>
+        <v>24819</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3842,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>32</v>
+        <v>3823</v>
       </c>
       <c r="AJ22" s="73">
-        <v>46</v>
+        <v>5611</v>
       </c>
       <c r="AK22" s="75">
-        <v>-14</v>
+        <v>-1788</v>
       </c>
       <c r="AL22" s="77">
-        <v>4747</v>
+        <v>571195</v>
       </c>
     </row>
     <row r="23">
@@ -3859,94 +3859,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>328</v>
+        <v>39823</v>
       </c>
       <c r="C23" s="7">
-        <v>370</v>
+        <v>44994</v>
       </c>
       <c r="D23" s="9">
-        <v>-42</v>
+        <v>-5171</v>
       </c>
       <c r="E23" s="11">
-        <v>880</v>
+        <v>106687</v>
       </c>
       <c r="F23" s="13">
-        <v>978</v>
+        <v>119142</v>
       </c>
       <c r="G23" s="15">
-        <v>-98</v>
+        <v>-12455</v>
       </c>
       <c r="H23" s="17">
-        <v>637</v>
+        <v>77963</v>
       </c>
       <c r="I23" s="19">
-        <v>506</v>
+        <v>61474</v>
       </c>
       <c r="J23" s="21">
-        <v>131</v>
+        <v>16488</v>
       </c>
       <c r="K23" s="23">
-        <v>169</v>
+        <v>20693</v>
       </c>
       <c r="L23" s="25">
-        <v>185</v>
+        <v>22404</v>
       </c>
       <c r="M23" s="27">
-        <v>-16</v>
+        <v>-1712</v>
       </c>
       <c r="N23" s="29">
-        <v>31</v>
+        <v>3843</v>
       </c>
       <c r="O23" s="31">
-        <v>27</v>
+        <v>3240</v>
       </c>
       <c r="P23" s="33">
-        <v>5</v>
+        <v>603</v>
       </c>
       <c r="Q23" s="35">
-        <v>100</v>
+        <v>12264</v>
       </c>
       <c r="R23" s="37">
-        <v>48</v>
+        <v>5857</v>
       </c>
       <c r="S23" s="39">
-        <v>52</v>
+        <v>6406</v>
       </c>
       <c r="T23" s="41">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U23" s="43">
         <v>0</v>
       </c>
       <c r="V23" s="45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W23" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="49">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="Y23" s="51">
-        <v>-1</v>
+        <v>-70</v>
       </c>
       <c r="Z23" s="53">
-        <v>150</v>
+        <v>18461</v>
       </c>
       <c r="AA23" s="55">
-        <v>188</v>
+        <v>22971</v>
       </c>
       <c r="AB23" s="57">
-        <v>-38</v>
+        <v>-4510</v>
       </c>
       <c r="AC23" s="59">
-        <v>186</v>
+        <v>22687</v>
       </c>
       <c r="AD23" s="61">
-        <v>57</v>
+        <v>6932</v>
       </c>
       <c r="AE23" s="63">
-        <v>129</v>
+        <v>15755</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3958,16 +3958,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>21</v>
+        <v>2524</v>
       </c>
       <c r="AJ23" s="73">
-        <v>11</v>
+        <v>1386</v>
       </c>
       <c r="AK23" s="75">
-        <v>9</v>
+        <v>1138</v>
       </c>
       <c r="AL23" s="77">
-        <v>1866</v>
+        <v>226997</v>
       </c>
     </row>
     <row r="24">
@@ -3975,94 +3975,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>602</v>
+        <v>75090</v>
       </c>
       <c r="C24" s="7">
-        <v>822</v>
+        <v>102562</v>
       </c>
       <c r="D24" s="9">
-        <v>-221</v>
+        <v>-27472</v>
       </c>
       <c r="E24" s="11">
-        <v>1521</v>
+        <v>188875</v>
       </c>
       <c r="F24" s="13">
-        <v>1110</v>
+        <v>139103</v>
       </c>
       <c r="G24" s="15">
-        <v>411</v>
+        <v>49772</v>
       </c>
       <c r="H24" s="17">
-        <v>555</v>
+        <v>71058</v>
       </c>
       <c r="I24" s="19">
-        <v>749</v>
+        <v>93764</v>
       </c>
       <c r="J24" s="21">
-        <v>-194</v>
+        <v>-22707</v>
       </c>
       <c r="K24" s="23">
-        <v>241</v>
+        <v>31168</v>
       </c>
       <c r="L24" s="25">
-        <v>214</v>
+        <v>26736</v>
       </c>
       <c r="M24" s="27">
-        <v>28</v>
+        <v>4432</v>
       </c>
       <c r="N24" s="29">
-        <v>14</v>
+        <v>1749</v>
       </c>
       <c r="O24" s="31">
-        <v>35</v>
+        <v>4399</v>
       </c>
       <c r="P24" s="33">
-        <v>-21</v>
+        <v>-2650</v>
       </c>
       <c r="Q24" s="35">
-        <v>82</v>
+        <v>10590</v>
       </c>
       <c r="R24" s="37">
-        <v>88</v>
+        <v>10891</v>
       </c>
       <c r="S24" s="39">
-        <v>-6</v>
+        <v>-301</v>
       </c>
       <c r="T24" s="41">
-        <v>5</v>
+        <v>630</v>
       </c>
       <c r="U24" s="43">
-        <v>11</v>
+        <v>1303</v>
       </c>
       <c r="V24" s="45">
-        <v>-6</v>
+        <v>-673</v>
       </c>
       <c r="W24" s="47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X24" s="49">
-        <v>8</v>
+        <v>1055</v>
       </c>
       <c r="Y24" s="51">
-        <v>-8</v>
+        <v>-1045</v>
       </c>
       <c r="Z24" s="53">
-        <v>64</v>
+        <v>8153</v>
       </c>
       <c r="AA24" s="55">
-        <v>219</v>
+        <v>27589</v>
       </c>
       <c r="AB24" s="57">
-        <v>-155</v>
+        <v>-19436</v>
       </c>
       <c r="AC24" s="59">
-        <v>150</v>
+        <v>18758</v>
       </c>
       <c r="AD24" s="61">
-        <v>175</v>
+        <v>21791</v>
       </c>
       <c r="AE24" s="63">
-        <v>-25</v>
+        <v>-3033</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4074,16 +4074,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>20</v>
+        <v>2376</v>
       </c>
       <c r="AJ24" s="73">
-        <v>16</v>
+        <v>1969</v>
       </c>
       <c r="AK24" s="75">
-        <v>4</v>
+        <v>407</v>
       </c>
       <c r="AL24" s="77">
-        <v>2697</v>
+        <v>337399</v>
       </c>
     </row>
     <row r="25">
@@ -4091,94 +4091,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>377</v>
+        <v>50433</v>
       </c>
       <c r="C25" s="7">
-        <v>363</v>
+        <v>48449</v>
       </c>
       <c r="D25" s="9">
-        <v>14</v>
+        <v>1984</v>
       </c>
       <c r="E25" s="11">
-        <v>831</v>
+        <v>110775</v>
       </c>
       <c r="F25" s="13">
-        <v>928</v>
+        <v>124289</v>
       </c>
       <c r="G25" s="15">
-        <v>-97</v>
+        <v>-13514</v>
       </c>
       <c r="H25" s="17">
-        <v>468</v>
+        <v>62927</v>
       </c>
       <c r="I25" s="19">
-        <v>387</v>
+        <v>51684</v>
       </c>
       <c r="J25" s="21">
-        <v>81</v>
+        <v>11243</v>
       </c>
       <c r="K25" s="23">
-        <v>177</v>
+        <v>23760</v>
       </c>
       <c r="L25" s="25">
-        <v>163</v>
+        <v>21756</v>
       </c>
       <c r="M25" s="27">
-        <v>14</v>
+        <v>2004</v>
       </c>
       <c r="N25" s="29">
-        <v>15</v>
+        <v>1952</v>
       </c>
       <c r="O25" s="31">
-        <v>34</v>
+        <v>4567</v>
       </c>
       <c r="P25" s="33">
-        <v>-20</v>
+        <v>-2615</v>
       </c>
       <c r="Q25" s="35">
-        <v>76</v>
+        <v>10261</v>
       </c>
       <c r="R25" s="37">
-        <v>36</v>
+        <v>4854</v>
       </c>
       <c r="S25" s="39">
+        <v>5407</v>
+      </c>
+      <c r="T25" s="41">
         <v>40</v>
       </c>
-      <c r="T25" s="41">
-        <v>0</v>
-      </c>
       <c r="U25" s="43">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V25" s="45">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="W25" s="47">
         <v>0</v>
       </c>
       <c r="X25" s="49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y25" s="51">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="Z25" s="53">
-        <v>85</v>
+        <v>11421</v>
       </c>
       <c r="AA25" s="55">
-        <v>131</v>
+        <v>17506</v>
       </c>
       <c r="AB25" s="57">
-        <v>-46</v>
+        <v>-6085</v>
       </c>
       <c r="AC25" s="59">
-        <v>115</v>
+        <v>15493</v>
       </c>
       <c r="AD25" s="61">
-        <v>23</v>
+        <v>2982</v>
       </c>
       <c r="AE25" s="63">
-        <v>92</v>
+        <v>12511</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4190,16 +4190,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>10</v>
+        <v>1328</v>
       </c>
       <c r="AJ25" s="73">
-        <v>8</v>
+        <v>1040</v>
       </c>
       <c r="AK25" s="75">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="AL25" s="77">
-        <v>1685</v>
+        <v>225462</v>
       </c>
     </row>
     <row r="26">
@@ -4207,94 +4207,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>441</v>
+        <v>61604</v>
       </c>
       <c r="C26" s="7">
-        <v>471</v>
+        <v>65510</v>
       </c>
       <c r="D26" s="9">
-        <v>-30</v>
+        <v>-3906</v>
       </c>
       <c r="E26" s="11">
-        <v>1202</v>
+        <v>167493</v>
       </c>
       <c r="F26" s="13">
-        <v>1287</v>
+        <v>180145</v>
       </c>
       <c r="G26" s="15">
-        <v>-85</v>
+        <v>-12651</v>
       </c>
       <c r="H26" s="17">
-        <v>470</v>
+        <v>65991</v>
       </c>
       <c r="I26" s="19">
-        <v>333</v>
+        <v>46348</v>
       </c>
       <c r="J26" s="21">
-        <v>137</v>
+        <v>19643</v>
       </c>
       <c r="K26" s="23">
-        <v>149</v>
+        <v>20788</v>
       </c>
       <c r="L26" s="25">
-        <v>159</v>
+        <v>22152</v>
       </c>
       <c r="M26" s="27">
-        <v>-10</v>
+        <v>-1364</v>
       </c>
       <c r="N26" s="29">
-        <v>29</v>
+        <v>4037</v>
       </c>
       <c r="O26" s="31">
-        <v>31</v>
+        <v>4333</v>
       </c>
       <c r="P26" s="33">
-        <v>-3</v>
+        <v>-296</v>
       </c>
       <c r="Q26" s="35">
-        <v>103</v>
+        <v>14595</v>
       </c>
       <c r="R26" s="37">
-        <v>28</v>
+        <v>3917</v>
       </c>
       <c r="S26" s="39">
-        <v>75</v>
+        <v>10678</v>
       </c>
       <c r="T26" s="41">
-        <v>2</v>
+        <v>327</v>
       </c>
       <c r="U26" s="43">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="V26" s="45">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="W26" s="47">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X26" s="49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y26" s="51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z26" s="53">
-        <v>111</v>
+        <v>15637</v>
       </c>
       <c r="AA26" s="55">
-        <v>73</v>
+        <v>10252</v>
       </c>
       <c r="AB26" s="57">
-        <v>38</v>
+        <v>5385</v>
       </c>
       <c r="AC26" s="59">
-        <v>76</v>
+        <v>10589</v>
       </c>
       <c r="AD26" s="61">
-        <v>40</v>
+        <v>5567</v>
       </c>
       <c r="AE26" s="63">
-        <v>35</v>
+        <v>5023</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>24</v>
+        <v>3285</v>
       </c>
       <c r="AJ26" s="73">
-        <v>45</v>
+        <v>6371</v>
       </c>
       <c r="AK26" s="75">
-        <v>-22</v>
+        <v>-3086</v>
       </c>
       <c r="AL26" s="77">
-        <v>2136</v>
+        <v>298374</v>
       </c>
     </row>
     <row r="27">
@@ -4323,94 +4323,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>509</v>
+        <v>69617</v>
       </c>
       <c r="C27" s="7">
-        <v>787</v>
+        <v>108268</v>
       </c>
       <c r="D27" s="9">
-        <v>-278</v>
+        <v>-38650</v>
       </c>
       <c r="E27" s="11">
-        <v>1761</v>
+        <v>241281</v>
       </c>
       <c r="F27" s="13">
-        <v>1466</v>
+        <v>200196</v>
       </c>
       <c r="G27" s="15">
-        <v>295</v>
+        <v>41084</v>
       </c>
       <c r="H27" s="17">
-        <v>602</v>
+        <v>82528</v>
       </c>
       <c r="I27" s="19">
-        <v>614</v>
+        <v>84216</v>
       </c>
       <c r="J27" s="21">
-        <v>-12</v>
+        <v>-1688</v>
       </c>
       <c r="K27" s="23">
-        <v>275</v>
+        <v>37395</v>
       </c>
       <c r="L27" s="25">
-        <v>212</v>
+        <v>29272</v>
       </c>
       <c r="M27" s="27">
-        <v>62</v>
+        <v>8123</v>
       </c>
       <c r="N27" s="29">
-        <v>31</v>
+        <v>4215</v>
       </c>
       <c r="O27" s="31">
-        <v>52</v>
+        <v>7106</v>
       </c>
       <c r="P27" s="33">
-        <v>-21</v>
+        <v>-2892</v>
       </c>
       <c r="Q27" s="35">
-        <v>76</v>
+        <v>10486</v>
       </c>
       <c r="R27" s="37">
-        <v>76</v>
+        <v>10557</v>
       </c>
       <c r="S27" s="39">
-        <v>0</v>
+        <v>-71</v>
       </c>
       <c r="T27" s="41">
-        <v>6</v>
+        <v>867</v>
       </c>
       <c r="U27" s="43">
-        <v>6</v>
+        <v>814</v>
       </c>
       <c r="V27" s="45">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="W27" s="47">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="X27" s="49">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="Y27" s="51">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z27" s="53">
-        <v>161</v>
+        <v>22353</v>
       </c>
       <c r="AA27" s="55">
-        <v>173</v>
+        <v>23449</v>
       </c>
       <c r="AB27" s="57">
-        <v>-12</v>
+        <v>-1096</v>
       </c>
       <c r="AC27" s="59">
-        <v>52</v>
+        <v>7074</v>
       </c>
       <c r="AD27" s="61">
-        <v>94</v>
+        <v>12941</v>
       </c>
       <c r="AE27" s="63">
-        <v>-42</v>
+        <v>-5867</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4422,16 +4422,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>17</v>
+        <v>2311</v>
       </c>
       <c r="AJ27" s="73">
-        <v>22</v>
+        <v>3056</v>
       </c>
       <c r="AK27" s="75">
-        <v>-5</v>
+        <v>-746</v>
       </c>
       <c r="AL27" s="77">
-        <v>2889</v>
+        <v>395736</v>
       </c>
     </row>
     <row r="28">
@@ -4439,94 +4439,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>968</v>
+        <v>145148</v>
       </c>
       <c r="C28" s="7">
-        <v>941</v>
+        <v>141014</v>
       </c>
       <c r="D28" s="9">
-        <v>27</v>
+        <v>4134</v>
       </c>
       <c r="E28" s="11">
-        <v>2474</v>
+        <v>370970</v>
       </c>
       <c r="F28" s="13">
-        <v>2953</v>
+        <v>443627</v>
       </c>
       <c r="G28" s="15">
-        <v>-479</v>
+        <v>-72657</v>
       </c>
       <c r="H28" s="17">
-        <v>998</v>
+        <v>150105</v>
       </c>
       <c r="I28" s="19">
-        <v>537</v>
+        <v>80053</v>
       </c>
       <c r="J28" s="21">
-        <v>461</v>
+        <v>70052</v>
       </c>
       <c r="K28" s="23">
-        <v>346</v>
+        <v>51789</v>
       </c>
       <c r="L28" s="25">
-        <v>231</v>
+        <v>34581</v>
       </c>
       <c r="M28" s="27">
-        <v>114</v>
+        <v>17208</v>
       </c>
       <c r="N28" s="29">
-        <v>73</v>
+        <v>11138</v>
       </c>
       <c r="O28" s="31">
-        <v>38</v>
+        <v>5710</v>
       </c>
       <c r="P28" s="33">
-        <v>35</v>
+        <v>5428</v>
       </c>
       <c r="Q28" s="35">
-        <v>171</v>
+        <v>25578</v>
       </c>
       <c r="R28" s="37">
-        <v>60</v>
+        <v>8943</v>
       </c>
       <c r="S28" s="39">
-        <v>110</v>
+        <v>16635</v>
       </c>
       <c r="T28" s="41">
-        <v>13</v>
+        <v>1971</v>
       </c>
       <c r="U28" s="43">
         <v>0</v>
       </c>
       <c r="V28" s="45">
-        <v>13</v>
+        <v>1971</v>
       </c>
       <c r="W28" s="47">
-        <v>9</v>
+        <v>1342</v>
       </c>
       <c r="X28" s="49">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y28" s="51">
-        <v>8</v>
+        <v>1294</v>
       </c>
       <c r="Z28" s="53">
-        <v>265</v>
+        <v>39988</v>
       </c>
       <c r="AA28" s="55">
-        <v>91</v>
+        <v>13503</v>
       </c>
       <c r="AB28" s="57">
-        <v>174</v>
+        <v>26486</v>
       </c>
       <c r="AC28" s="59">
-        <v>122</v>
+        <v>18298</v>
       </c>
       <c r="AD28" s="61">
-        <v>116</v>
+        <v>17269</v>
       </c>
       <c r="AE28" s="63">
-        <v>6</v>
+        <v>1029</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4538,16 +4538,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>58</v>
+        <v>8513</v>
       </c>
       <c r="AJ28" s="73">
-        <v>67</v>
+        <v>10041</v>
       </c>
       <c r="AK28" s="75">
-        <v>-9</v>
+        <v>-1528</v>
       </c>
       <c r="AL28" s="77">
-        <v>4498</v>
+        <v>674736</v>
       </c>
     </row>
     <row r="29">
@@ -4555,94 +4555,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>712</v>
+        <v>98022</v>
       </c>
       <c r="C29" s="7">
-        <v>365</v>
+        <v>50016</v>
       </c>
       <c r="D29" s="9">
-        <v>347</v>
+        <v>48006</v>
       </c>
       <c r="E29" s="11">
-        <v>1889</v>
+        <v>258865</v>
       </c>
       <c r="F29" s="13">
-        <v>2039</v>
+        <v>280754</v>
       </c>
       <c r="G29" s="15">
-        <v>-150</v>
+        <v>-21889</v>
       </c>
       <c r="H29" s="17">
-        <v>449</v>
+        <v>62084</v>
       </c>
       <c r="I29" s="19">
-        <v>652</v>
+        <v>89001</v>
       </c>
       <c r="J29" s="21">
-        <v>-203</v>
+        <v>-26917</v>
       </c>
       <c r="K29" s="23">
-        <v>189</v>
+        <v>25978</v>
       </c>
       <c r="L29" s="25">
-        <v>202</v>
+        <v>27713</v>
       </c>
       <c r="M29" s="27">
-        <v>-13</v>
+        <v>-1735</v>
       </c>
       <c r="N29" s="29">
+        <v>3466</v>
+      </c>
+      <c r="O29" s="31">
+        <v>11065</v>
+      </c>
+      <c r="P29" s="33">
+        <v>-7599</v>
+      </c>
+      <c r="Q29" s="35">
+        <v>10887</v>
+      </c>
+      <c r="R29" s="37">
+        <v>20947</v>
+      </c>
+      <c r="S29" s="39">
+        <v>-10060</v>
+      </c>
+      <c r="T29" s="41">
+        <v>247</v>
+      </c>
+      <c r="U29" s="43">
+        <v>0</v>
+      </c>
+      <c r="V29" s="45">
+        <v>247</v>
+      </c>
+      <c r="W29" s="47">
         <v>25</v>
       </c>
-      <c r="O29" s="31">
-        <v>81</v>
-      </c>
-      <c r="P29" s="33">
-        <v>-56</v>
-      </c>
-      <c r="Q29" s="35">
-        <v>78</v>
-      </c>
-      <c r="R29" s="37">
-        <v>154</v>
-      </c>
-      <c r="S29" s="39">
-        <v>-76</v>
-      </c>
-      <c r="T29" s="41">
-        <v>2</v>
-      </c>
-      <c r="U29" s="43">
-        <v>0</v>
-      </c>
-      <c r="V29" s="45">
-        <v>2</v>
-      </c>
-      <c r="W29" s="47">
-        <v>0</v>
-      </c>
       <c r="X29" s="49">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="Y29" s="51">
-        <v>-1</v>
+        <v>-70</v>
       </c>
       <c r="Z29" s="53">
-        <v>118</v>
+        <v>16462</v>
       </c>
       <c r="AA29" s="55">
-        <v>153</v>
+        <v>20702</v>
       </c>
       <c r="AB29" s="57">
-        <v>-34</v>
+        <v>-4240</v>
       </c>
       <c r="AC29" s="59">
-        <v>36</v>
+        <v>5019</v>
       </c>
       <c r="AD29" s="61">
-        <v>62</v>
+        <v>8479</v>
       </c>
       <c r="AE29" s="63">
-        <v>-26</v>
+        <v>-3460</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4654,16 +4654,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>34</v>
+        <v>4627</v>
       </c>
       <c r="AJ29" s="73">
-        <v>28</v>
+        <v>3827</v>
       </c>
       <c r="AK29" s="75">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="AL29" s="77">
-        <v>3084</v>
+        <v>423599</v>
       </c>
     </row>
     <row r="30">
@@ -4671,94 +4671,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>912</v>
+        <v>124288</v>
       </c>
       <c r="C30" s="7">
-        <v>865</v>
+        <v>118368</v>
       </c>
       <c r="D30" s="9">
-        <v>47</v>
+        <v>5920</v>
       </c>
       <c r="E30" s="11">
-        <v>2316</v>
+        <v>316363</v>
       </c>
       <c r="F30" s="13">
-        <v>2495</v>
+        <v>341008</v>
       </c>
       <c r="G30" s="15">
-        <v>-179</v>
+        <v>-24645</v>
       </c>
       <c r="H30" s="17">
-        <v>817</v>
+        <v>112142</v>
       </c>
       <c r="I30" s="19">
-        <v>771</v>
+        <v>105095</v>
       </c>
       <c r="J30" s="21">
-        <v>47</v>
+        <v>7047</v>
       </c>
       <c r="K30" s="23">
-        <v>441</v>
+        <v>60330</v>
       </c>
       <c r="L30" s="25">
-        <v>444</v>
+        <v>60578</v>
       </c>
       <c r="M30" s="27">
-        <v>-2</v>
+        <v>-248</v>
       </c>
       <c r="N30" s="29">
-        <v>22</v>
+        <v>3084</v>
       </c>
       <c r="O30" s="31">
-        <v>29</v>
+        <v>3956</v>
       </c>
       <c r="P30" s="33">
-        <v>-7</v>
+        <v>-871</v>
       </c>
       <c r="Q30" s="35">
-        <v>63</v>
+        <v>8629</v>
       </c>
       <c r="R30" s="37">
-        <v>64</v>
+        <v>8764</v>
       </c>
       <c r="S30" s="39">
-        <v>-1</v>
+        <v>-135</v>
       </c>
       <c r="T30" s="41">
         <v>0</v>
       </c>
       <c r="U30" s="43">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="V30" s="45">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="W30" s="47">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X30" s="49">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y30" s="51">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="Z30" s="53">
-        <v>247</v>
+        <v>34144</v>
       </c>
       <c r="AA30" s="55">
-        <v>95</v>
+        <v>12895</v>
       </c>
       <c r="AB30" s="57">
-        <v>152</v>
+        <v>21249</v>
       </c>
       <c r="AC30" s="59">
-        <v>43</v>
+        <v>5937</v>
       </c>
       <c r="AD30" s="61">
-        <v>137</v>
+        <v>18758</v>
       </c>
       <c r="AE30" s="63">
-        <v>-94</v>
+        <v>-12821</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4770,16 +4770,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>128</v>
+        <v>17375</v>
       </c>
       <c r="AJ30" s="73">
-        <v>42</v>
+        <v>5696</v>
       </c>
       <c r="AK30" s="75">
-        <v>86</v>
+        <v>11678</v>
       </c>
       <c r="AL30" s="77">
-        <v>4172</v>
+        <v>570168</v>
       </c>
     </row>
     <row r="31">
@@ -4787,94 +4787,94 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>1782</v>
+        <v>231477</v>
       </c>
       <c r="C31" s="7">
-        <v>767</v>
+        <v>100565</v>
       </c>
       <c r="D31" s="9">
-        <v>1015</v>
+        <v>130912</v>
       </c>
       <c r="E31" s="11">
-        <v>3453</v>
+        <v>447758</v>
       </c>
       <c r="F31" s="13">
-        <v>4101</v>
+        <v>532033</v>
       </c>
       <c r="G31" s="15">
-        <v>-648</v>
+        <v>-84275</v>
       </c>
       <c r="H31" s="17">
-        <v>958</v>
+        <v>125506</v>
       </c>
       <c r="I31" s="19">
-        <v>1315</v>
+        <v>170853</v>
       </c>
       <c r="J31" s="21">
-        <v>-357</v>
+        <v>-45347</v>
       </c>
       <c r="K31" s="23">
-        <v>615</v>
+        <v>80830</v>
       </c>
       <c r="L31" s="25">
-        <v>664</v>
+        <v>87242</v>
       </c>
       <c r="M31" s="27">
-        <v>-49</v>
+        <v>-6412</v>
       </c>
       <c r="N31" s="29">
-        <v>30</v>
+        <v>3976</v>
       </c>
       <c r="O31" s="31">
-        <v>56</v>
+        <v>7324</v>
       </c>
       <c r="P31" s="33">
-        <v>-26</v>
+        <v>-3347</v>
       </c>
       <c r="Q31" s="35">
-        <v>117</v>
+        <v>15309</v>
       </c>
       <c r="R31" s="37">
-        <v>151</v>
+        <v>19299</v>
       </c>
       <c r="S31" s="39">
-        <v>-34</v>
+        <v>-3990</v>
       </c>
       <c r="T31" s="41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U31" s="43">
-        <v>17</v>
+        <v>2123</v>
       </c>
       <c r="V31" s="45">
-        <v>-17</v>
+        <v>-2115</v>
       </c>
       <c r="W31" s="47">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="X31" s="49">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="Y31" s="51">
-        <v>-1</v>
+        <v>-124</v>
       </c>
       <c r="Z31" s="53">
-        <v>134</v>
+        <v>17444</v>
       </c>
       <c r="AA31" s="55">
-        <v>245</v>
+        <v>31640</v>
       </c>
       <c r="AB31" s="57">
-        <v>-111</v>
+        <v>-14196</v>
       </c>
       <c r="AC31" s="59">
-        <v>60</v>
+        <v>7809</v>
       </c>
       <c r="AD31" s="61">
-        <v>179</v>
+        <v>22972</v>
       </c>
       <c r="AE31" s="63">
-        <v>-120</v>
+        <v>-15163</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4886,16 +4886,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>76</v>
+        <v>9907</v>
       </c>
       <c r="AJ31" s="73">
-        <v>86</v>
+        <v>11197</v>
       </c>
       <c r="AK31" s="75">
-        <v>-10</v>
+        <v>-1290</v>
       </c>
       <c r="AL31" s="77">
-        <v>6270</v>
+        <v>814648</v>
       </c>
     </row>
     <row r="32">
@@ -4903,94 +4903,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>1806</v>
+        <v>213918</v>
       </c>
       <c r="C32" s="7">
-        <v>2102</v>
+        <v>246218</v>
       </c>
       <c r="D32" s="9">
-        <v>-296</v>
+        <v>-32300</v>
       </c>
       <c r="E32" s="11">
-        <v>4557</v>
+        <v>534340</v>
       </c>
       <c r="F32" s="13">
-        <v>4789</v>
+        <v>565281</v>
       </c>
       <c r="G32" s="15">
-        <v>-232</v>
+        <v>-30941</v>
       </c>
       <c r="H32" s="17">
-        <v>1361</v>
+        <v>160983</v>
       </c>
       <c r="I32" s="19">
-        <v>837</v>
+        <v>98086</v>
       </c>
       <c r="J32" s="21">
-        <v>524</v>
+        <v>62897</v>
       </c>
       <c r="K32" s="23">
-        <v>326</v>
+        <v>38150</v>
       </c>
       <c r="L32" s="25">
-        <v>286</v>
+        <v>33477</v>
       </c>
       <c r="M32" s="27">
-        <v>40</v>
+        <v>4672</v>
       </c>
       <c r="N32" s="29">
-        <v>64</v>
+        <v>7634</v>
       </c>
       <c r="O32" s="31">
-        <v>115</v>
+        <v>13551</v>
       </c>
       <c r="P32" s="33">
-        <v>-51</v>
+        <v>-5917</v>
       </c>
       <c r="Q32" s="35">
-        <v>201</v>
+        <v>23977</v>
       </c>
       <c r="R32" s="37">
-        <v>107</v>
+        <v>12643</v>
       </c>
       <c r="S32" s="39">
-        <v>94</v>
+        <v>11334</v>
       </c>
       <c r="T32" s="41">
-        <v>18</v>
+        <v>2162</v>
       </c>
       <c r="U32" s="43">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="V32" s="45">
-        <v>18</v>
+        <v>2120</v>
       </c>
       <c r="W32" s="47">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="X32" s="49">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="Y32" s="51">
-        <v>-1</v>
+        <v>-162</v>
       </c>
       <c r="Z32" s="53">
-        <v>449</v>
+        <v>52261</v>
       </c>
       <c r="AA32" s="55">
-        <v>187</v>
+        <v>21797</v>
       </c>
       <c r="AB32" s="57">
-        <v>261</v>
+        <v>30465</v>
       </c>
       <c r="AC32" s="59">
-        <v>303</v>
+        <v>36757</v>
       </c>
       <c r="AD32" s="61">
-        <v>139</v>
+        <v>16372</v>
       </c>
       <c r="AE32" s="63">
-        <v>164</v>
+        <v>20385</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5002,16 +5002,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>81</v>
+        <v>9400</v>
       </c>
       <c r="AJ32" s="73">
-        <v>76</v>
+        <v>9057</v>
       </c>
       <c r="AK32" s="75">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="AL32" s="77">
-        <v>7805</v>
+        <v>918641</v>
       </c>
     </row>
     <row r="33">
@@ -5019,94 +5019,94 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
-        <v>1126</v>
+        <v>132391</v>
       </c>
       <c r="C33" s="7">
-        <v>2245</v>
+        <v>259641</v>
       </c>
       <c r="D33" s="9">
-        <v>-1119</v>
+        <v>-127250</v>
       </c>
       <c r="E33" s="11">
-        <v>6082</v>
+        <v>708061</v>
       </c>
       <c r="F33" s="13">
-        <v>4827</v>
+        <v>567319</v>
       </c>
       <c r="G33" s="15">
-        <v>1255</v>
+        <v>140742</v>
       </c>
       <c r="H33" s="17">
-        <v>1278</v>
+        <v>149518</v>
       </c>
       <c r="I33" s="19">
-        <v>1468</v>
+        <v>169159</v>
       </c>
       <c r="J33" s="21">
-        <v>-190</v>
+        <v>-19641</v>
       </c>
       <c r="K33" s="23">
-        <v>335</v>
+        <v>39154</v>
       </c>
       <c r="L33" s="25">
-        <v>411</v>
+        <v>47870</v>
       </c>
       <c r="M33" s="27">
-        <v>-75</v>
+        <v>-8716</v>
       </c>
       <c r="N33" s="29">
-        <v>96</v>
+        <v>11178</v>
       </c>
       <c r="O33" s="31">
-        <v>72</v>
+        <v>8423</v>
       </c>
       <c r="P33" s="33">
-        <v>24</v>
+        <v>2755</v>
       </c>
       <c r="Q33" s="35">
-        <v>239</v>
+        <v>28266</v>
       </c>
       <c r="R33" s="37">
-        <v>170</v>
+        <v>19446</v>
       </c>
       <c r="S33" s="39">
-        <v>69</v>
+        <v>8820</v>
       </c>
       <c r="T33" s="41">
-        <v>5</v>
+        <v>658</v>
       </c>
       <c r="U33" s="43">
-        <v>7</v>
+        <v>803</v>
       </c>
       <c r="V33" s="45">
-        <v>-1</v>
+        <v>-144</v>
       </c>
       <c r="W33" s="47">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="X33" s="49">
-        <v>4</v>
+        <v>427</v>
       </c>
       <c r="Y33" s="51">
-        <v>-3</v>
+        <v>-294</v>
       </c>
       <c r="Z33" s="53">
-        <v>340</v>
+        <v>39127</v>
       </c>
       <c r="AA33" s="55">
-        <v>613</v>
+        <v>70380</v>
       </c>
       <c r="AB33" s="57">
-        <v>-273</v>
+        <v>-31253</v>
       </c>
       <c r="AC33" s="59">
-        <v>262</v>
+        <v>31001</v>
       </c>
       <c r="AD33" s="61">
-        <v>193</v>
+        <v>21810</v>
       </c>
       <c r="AE33" s="63">
-        <v>69</v>
+        <v>9191</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5118,16 +5118,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>166</v>
+        <v>19403</v>
       </c>
       <c r="AJ33" s="73">
-        <v>112</v>
+        <v>13254</v>
       </c>
       <c r="AK33" s="75">
-        <v>54</v>
+        <v>6149</v>
       </c>
       <c r="AL33" s="77">
-        <v>8651</v>
+        <v>1009372</v>
       </c>
     </row>
     <row r="34">
@@ -5135,94 +5135,94 @@
         <v>46</v>
       </c>
       <c r="B34" s="6">
-        <v>490</v>
+        <v>60130</v>
       </c>
       <c r="C34" s="8">
-        <v>1279</v>
+        <v>154874</v>
       </c>
       <c r="D34" s="10">
-        <v>-789</v>
+        <v>-94744</v>
       </c>
       <c r="E34" s="12">
-        <v>5308</v>
+        <v>659927</v>
       </c>
       <c r="F34" s="14">
-        <v>4386</v>
+        <v>550036</v>
       </c>
       <c r="G34" s="16">
-        <v>921</v>
+        <v>109891</v>
       </c>
       <c r="H34" s="18">
-        <v>1037</v>
+        <v>129655</v>
       </c>
       <c r="I34" s="20">
-        <v>1132</v>
+        <v>140074</v>
       </c>
       <c r="J34" s="22">
-        <v>-95</v>
+        <v>-10419</v>
       </c>
       <c r="K34" s="24">
-        <v>356</v>
+        <v>44483</v>
       </c>
       <c r="L34" s="26">
-        <v>422</v>
+        <v>51754</v>
       </c>
       <c r="M34" s="28">
-        <v>-66</v>
+        <v>-7271</v>
       </c>
       <c r="N34" s="30">
-        <v>181</v>
+        <v>22598</v>
       </c>
       <c r="O34" s="32">
-        <v>53</v>
+        <v>6591</v>
       </c>
       <c r="P34" s="34">
-        <v>128</v>
+        <v>16007</v>
       </c>
       <c r="Q34" s="36">
-        <v>189</v>
+        <v>23675</v>
       </c>
       <c r="R34" s="38">
-        <v>159</v>
+        <v>19966</v>
       </c>
       <c r="S34" s="40">
-        <v>30</v>
+        <v>3710</v>
       </c>
       <c r="T34" s="42">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="U34" s="44">
-        <v>5</v>
+        <v>576</v>
       </c>
       <c r="V34" s="46">
-        <v>-3</v>
+        <v>-343</v>
       </c>
       <c r="W34" s="48">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="X34" s="50">
-        <v>2</v>
+        <v>301</v>
       </c>
       <c r="Y34" s="52">
-        <v>-1</v>
+        <v>-121</v>
       </c>
       <c r="Z34" s="54">
-        <v>129</v>
+        <v>16114</v>
       </c>
       <c r="AA34" s="56">
-        <v>127</v>
+        <v>15609</v>
       </c>
       <c r="AB34" s="58">
-        <v>3</v>
+        <v>504</v>
       </c>
       <c r="AC34" s="60">
-        <v>179</v>
+        <v>22372</v>
       </c>
       <c r="AD34" s="62">
-        <v>365</v>
+        <v>45277</v>
       </c>
       <c r="AE34" s="64">
-        <v>-186</v>
+        <v>-22905</v>
       </c>
       <c r="AF34" s="66">
         <v>0</v>
@@ -5234,16 +5234,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="72">
-        <v>118</v>
+        <v>14904</v>
       </c>
       <c r="AJ34" s="74">
-        <v>156</v>
+        <v>19633</v>
       </c>
       <c r="AK34" s="76">
-        <v>-38</v>
+        <v>-4729</v>
       </c>
       <c r="AL34" s="78">
-        <v>6954</v>
+        <v>864617</v>
       </c>
     </row>
   </sheetData>
